--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0223 - Sales melakukan Simulasi Performance Calculator.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0223 - Sales melakukan Simulasi Performance Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389D1E05-C8C2-4FBA-B8D9-67CFE8613B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026292DA-5186-4924-A0F5-478EB2ECFAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>RUN</t>
   </si>
@@ -105,15 +105,15 @@
   </si>
   <si>
     <t>Performance Calculator</t>
-  </si>
-  <si>
-    <t>Juni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -199,6 +199,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +528,7 @@
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
     <col min="13" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
     <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
@@ -609,8 +612,9 @@
       <c r="K2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
+      <c r="L2" s="16" t="str">
+        <f ca="1">IF(LEFT(TEXT(TODAY(),"mmmm"),3)="aug","agu",IF(LEFT(TEXT(TODAY(),"mmmm"),3)="oct","okt",IF(LEFT(TEXT(TODAY(),"mmmm"),3)="dec","des",LEFT(TEXT(TODAY(),"mmmm"),3))))</f>
+        <v>agu</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>16</v>
